--- a/Excel/otsenka.xlsx
+++ b/Excel/otsenka.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Резултат</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Павел</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +700,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,8 +722,11 @@
         <f>VLOOKUP(Table1[[#This Row],[Резултат]], {0,"F";60,"D";70,"C";80,"B";90,"A"}, 2)</f>
         <v>A</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +738,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -744,7 +750,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +762,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -768,7 +774,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -780,7 +786,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -792,7 +798,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
